--- a/config/standard/forms/app/nutrition_followup.xlsx
+++ b/config/standard/forms/app/nutrition_followup.xlsx
@@ -13,17 +13,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -63,18 +63,15 @@
     <t>constraint_message</t>
   </si>
   <si>
-    <t>cf</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
+    <t>male_female</t>
+  </si>
+  <si>
     <t>child nutrition followup</t>
   </si>
   <si>
-    <t>male_female</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -96,16 +93,25 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
   <si>
     <t>nutrition_followup</t>
@@ -117,289 +123,229 @@
     <t>No</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Record ${treatment_program} follow up visit</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the child's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Select a person from list</t>
+  </si>
+  <si>
+    <t>Child Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>Child ID</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>attend_visit</t>
+  </si>
+  <si>
+    <t>Did ${patient_name} attend the visit?</t>
+  </si>
+  <si>
+    <t>${source} = 'task'</t>
+  </si>
+  <si>
+    <t>treatment_program</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>instance('contact-summary')/context/treatment_program</t>
+  </si>
+  <si>
+    <t>measurements</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>${attend_visit} = 'yes'</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Weight (kgs)</t>
+  </si>
+  <si>
+    <t>. &gt;= 0.8 and . &lt;= 68.5</t>
+  </si>
+  <si>
+    <t>Weight should be between 0.8 kg and 68.5 kg</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Height (cms)</t>
+  </si>
+  <si>
+    <t>. &gt;= 45 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>Height should be between 45 cm and 120 cm</t>
+  </si>
+  <si>
+    <t>muac</t>
+  </si>
+  <si>
+    <t>MUAC Measurement</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 30</t>
+  </si>
+  <si>
+    <t>MUAC should be between 5 and 30 cm</t>
+  </si>
+  <si>
+    <t>wfh</t>
+  </si>
+  <si>
+    <t>round(z-score('weight-for-height', ${gender}, ${height}, ${weight}), 1)</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>nn3</t>
+  </si>
+  <si>
+    <t>WFH: ${wfh}</t>
+  </si>
+  <si>
+    <t>${weight} != '' and ${height} != ''</t>
+  </si>
+  <si>
+    <t>wfh_message</t>
+  </si>
+  <si>
+    <t>if(${wfh} = "", "", if( (${wfh} &lt; -3), "&lt; -3SD [Severely Wasted]", if( (${wfh} &lt; -2 and ${wfh} &gt;= -3), "-3SD to &lt;-2SD [Moderately Wasted]", if( (${wfh} &lt;= 2 and ${wfh} &gt;= -2), "-2SD to 2SD [Normal]", if( (${wfh} &gt; 2), "&gt;2SD [Overweight]", "" ) ) ) ))</t>
+  </si>
+  <si>
+    <t>wfh_note</t>
+  </si>
+  <si>
+    <t>interpretation: ${wfh_message}</t>
   </si>
   <si>
     <t>exit</t>
   </si>
   <si>
-    <t>Exit from ${treatment_program}</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>cured</t>
-  </si>
-  <si>
-    <t>Cured</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>cured_otp</t>
-  </si>
-  <si>
-    <t>Cured - Transfer to OTP</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>cured_sfp</t>
-  </si>
-  <si>
-    <t>Cured - Transfer to SFP</t>
-  </si>
-  <si>
-    <t>otp</t>
-  </si>
-  <si>
-    <t>Transfer to OTP</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>sfp</t>
-  </si>
-  <si>
-    <t>Transfer to SFP</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>Transfer to SC</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the child's name?</t>
-  </si>
-  <si>
-    <t>different_site</t>
-  </si>
-  <si>
-    <t>Transfer to a different site for the same program</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>Select a person from list</t>
-  </si>
-  <si>
-    <t>nonresponsive</t>
-  </si>
-  <si>
-    <t>Non-responsive (non-recovered)</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>Child Name</t>
-  </si>
-  <si>
-    <t>defaulter</t>
-  </si>
-  <si>
-    <t>Defaulter</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Child ID</t>
-  </si>
-  <si>
-    <t>end group</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>attend_visit</t>
-  </si>
-  <si>
-    <t>Did ${patient_name} attend the visit?</t>
-  </si>
-  <si>
-    <t>${source} = 'task'</t>
-  </si>
-  <si>
-    <t>measurements</t>
-  </si>
-  <si>
-    <t>Measurements</t>
-  </si>
-  <si>
-    <t>${attend_visit} = 'yes'</t>
-  </si>
-  <si>
-    <t>select_one male_female</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Weight (kgs)</t>
-  </si>
-  <si>
-    <t>. &gt;= 0.8 and . &lt;= 68.5</t>
-  </si>
-  <si>
-    <t>Weight should be between 0.8 kg and 68.5 kg</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Height (cms)</t>
-  </si>
-  <si>
-    <t>. &gt;= 45 and . &lt;= 120</t>
-  </si>
-  <si>
-    <t>Height should be between 45 cm and 120 cm</t>
-  </si>
-  <si>
-    <t>muac</t>
-  </si>
-  <si>
-    <t>MUAC Measurement</t>
-  </si>
-  <si>
-    <t>. &gt;= 5 and . &lt;= 30</t>
-  </si>
-  <si>
-    <t>MUAC should be between 5 and 30 cm</t>
-  </si>
-  <si>
-    <t>wfh</t>
-  </si>
-  <si>
-    <t>z-score('weight-for-height', ${gender}, ${height}, ${weight})</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>nn3</t>
-  </si>
-  <si>
-    <t>WFH: ${wfh}</t>
-  </si>
-  <si>
-    <t>wfh_message</t>
-  </si>
-  <si>
-    <t>if(${wfh} = "", "", if( (${wfh} &lt; -3), "&lt; -3SD [Severely Wasted]", if( (${wfh} &lt; -2 and ${wfh} &gt;= -3), "-3SD to &lt;-2SD [Moderately Wasted]", if( (${wfh} &lt;= 2 and ${wfh} &gt;= -2), "-2SD to 2SD [Normal]", if( (${wfh} &gt; 2), "&gt;2SD [Overweight]", "" ) ) ) ))</t>
-  </si>
-  <si>
-    <t>zscore_wfh_note</t>
-  </si>
-  <si>
-    <t>weight for height: ${wfh_message}</t>
-  </si>
-  <si>
-    <t>${wfh} != ''</t>
+    <t>Do you want to exit ${patient_name} from ${treatment_program} treatment program today?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Please remember to fill out the nutrition exit form.</t>
+  </si>
+  <si>
+    <t>${exit} = 'yes'</t>
   </si>
   <si>
     <t>summary</t>
   </si>
   <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
     <t>field-list summary</t>
   </si>
   <si>
+    <t>n_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${patient_name}&lt;/h4&gt; </t>
+  </si>
+  <si>
     <t>n_2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${patient_name}&lt;/h4&gt; </t>
+    <t>Gender: ${gender}</t>
+  </si>
+  <si>
+    <t>n_3</t>
+  </si>
+  <si>
+    <t>Weight: ${weight} kg</t>
   </si>
   <si>
     <t>n_4</t>
   </si>
   <si>
-    <t>Gender: ${gender}</t>
+    <t>Height: ${height} cm</t>
+  </si>
+  <si>
+    <t>n_5</t>
+  </si>
+  <si>
+    <t>Weight for height z-score: ${wfh}</t>
   </si>
   <si>
     <t>n_6</t>
   </si>
   <si>
-    <t>Weight: ${weight} kg</t>
-  </si>
-  <si>
-    <t>n_7</t>
-  </si>
-  <si>
-    <t>Height: ${height} cm</t>
-  </si>
-  <si>
-    <t>n_9</t>
-  </si>
-  <si>
-    <t>Weight for height z-score: ${wfh}</t>
+    <t>To be exited from ${treatment_program} treatment program: ${exit}</t>
   </si>
 </sst>
 </file>
@@ -435,7 +381,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +400,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -470,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -493,18 +433,30 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -520,26 +472,17 @@
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -585,10 +528,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="18.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -639,16 +585,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>29</v>
@@ -678,23 +624,23 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -717,17 +663,17 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -754,13 +700,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -789,22 +735,22 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -828,17 +774,17 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>73</v>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -865,17 +811,17 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -902,7 +848,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -933,7 +879,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
@@ -965,7 +911,7 @@
     <row r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -993,19 +939,19 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1030,19 +976,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1065,76 +1011,113 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="A17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1160,29 +1143,29 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>95</v>
+        <v>70</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="17"/>
+      <c r="J19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="14"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -1201,29 +1184,29 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="17"/>
+      <c r="J20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -1242,29 +1225,29 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="19" t="s">
-        <v>32</v>
+      <c r="F21" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="14"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -1283,20 +1266,20 @@
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="G22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1318,22 +1301,24 @@
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -1352,52 +1337,52 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
+      <c r="A24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>115</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1424,189 +1409,269 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
+      <c r="A26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>121</v>
+      <c r="A31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>122</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>126</v>
+        <v>84</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1630,7 +1695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1638,9 +1703,7 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1667,182 +1730,62 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21">
-      <c r="C21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1864,7 +1807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1903,14 +1846,14 @@
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd HH-MM")</f>
-        <v>2019-03-18 09-32</v>
+        <v>2019-03-21 11-59</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
